--- a/biology/Zoologie/Caliroa_dionae/Caliroa_dionae.xlsx
+++ b/biology/Zoologie/Caliroa_dionae/Caliroa_dionae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caliroa dionae est une espèce de guêpes de la famille des Tenthredinidae dont les larves mangent les feuilles de bleuets[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caliroa dionae est une espèce de guêpes de la famille des Tenthredinidae dont les larves mangent les feuilles de bleuets,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) David R. Smith et Joseph Moisan-De Serres, « A New North American Caliroa (Hymenoptera: Tenthredinidae) on Vaccinium corymbosum L. (Ericaceae) », Proceedings of the Entomological Society of Washington, Washington, Entomological Society of Washington (d), vol. 119, no 4,‎ octobre 2017, p. 637-640 (ISSN 0013-8797 et 2378-6477, OCLC 630167895 et 1568029, DOI 10.4289/0013-8797.119.4.637)</t>
         </is>
